--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -542,16 +542,16 @@
         <v>5082385.145896022</v>
       </c>
       <c r="J2" t="n">
-        <v>411372.7879340625</v>
+        <v>389570.0301735573</v>
       </c>
       <c r="K2" t="n">
-        <v>406335.570122625</v>
+        <v>384799.784906126</v>
       </c>
       <c r="L2" t="n">
-        <v>606145.2099763124</v>
+        <v>574019.5138475678</v>
       </c>
       <c r="M2" t="n">
-        <v>601107.9921648749</v>
+        <v>569249.2685801365</v>
       </c>
     </row>
     <row r="3">
@@ -583,16 +583,16 @@
         <v>5290205.251775497</v>
       </c>
       <c r="J3" t="n">
-        <v>415486.5158134032</v>
+        <v>393465.7304752927</v>
       </c>
       <c r="K3" t="n">
-        <v>414462.2815250775</v>
+        <v>392495.7806042485</v>
       </c>
       <c r="L3" t="n">
-        <v>612206.6620760754</v>
+        <v>579759.7089860436</v>
       </c>
       <c r="M3" t="n">
-        <v>613130.1520081724</v>
+        <v>580634.2539517392</v>
       </c>
     </row>
     <row r="4">
@@ -624,16 +624,16 @@
         <v>5493050.758260189</v>
       </c>
       <c r="J4" t="n">
-        <v>419641.380971537</v>
+        <v>397400.3877800457</v>
       </c>
       <c r="K4" t="n">
-        <v>422751.5271555791</v>
+        <v>400345.6962163335</v>
       </c>
       <c r="L4" t="n">
-        <v>618328.7286968363</v>
+        <v>585557.3060759039</v>
       </c>
       <c r="M4" t="n">
-        <v>625392.7550483359</v>
+        <v>592246.9390307739</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         <v>5695401.421327166</v>
       </c>
       <c r="J5" t="n">
-        <v>423837.7947812526</v>
+        <v>401374.3916578463</v>
       </c>
       <c r="K5" t="n">
-        <v>431206.5576986907</v>
+        <v>408352.6101406603</v>
       </c>
       <c r="L5" t="n">
-        <v>624512.0159838048</v>
+        <v>591412.8791366632</v>
       </c>
       <c r="M5" t="n">
-        <v>637900.6101493028</v>
+        <v>604091.8778113899</v>
       </c>
     </row>
     <row r="6">
@@ -706,16 +706,16 @@
         <v>5946559.16439731</v>
       </c>
       <c r="J6" t="n">
-        <v>428076.172729065</v>
+        <v>405388.1355744247</v>
       </c>
       <c r="K6" t="n">
-        <v>439830.6888526643</v>
+        <v>416519.6623434732</v>
       </c>
       <c r="L6" t="n">
-        <v>630757.1361436428</v>
+        <v>597327.0079280295</v>
       </c>
       <c r="M6" t="n">
-        <v>650658.6223522885</v>
+        <v>616173.7153676173</v>
       </c>
     </row>
     <row r="7">
@@ -747,16 +747,16 @@
         <v>6195922.614643319</v>
       </c>
       <c r="J7" t="n">
-        <v>432356.9344563558</v>
+        <v>409442.016930169</v>
       </c>
       <c r="K7" t="n">
-        <v>448627.3026297177</v>
+        <v>424850.0555903428</v>
       </c>
       <c r="L7" t="n">
-        <v>637064.7075050793</v>
+        <v>603300.27800731</v>
       </c>
       <c r="M7" t="n">
-        <v>663671.7947993343</v>
+        <v>628497.1896749695</v>
       </c>
     </row>
     <row r="8">
@@ -788,16 +788,16 @@
         <v>6492171.365721051</v>
       </c>
       <c r="J8" t="n">
-        <v>436680.5038009194</v>
+        <v>413536.4370994706</v>
       </c>
       <c r="K8" t="n">
-        <v>457599.8486823121</v>
+        <v>433347.0567021497</v>
       </c>
       <c r="L8" t="n">
-        <v>643435.3545801301</v>
+        <v>609333.2807873832</v>
       </c>
       <c r="M8" t="n">
-        <v>676945.2306953211</v>
+        <v>641067.1334684691</v>
       </c>
     </row>
     <row r="9">
@@ -829,16 +829,16 @@
         <v>6738322.143833901</v>
       </c>
       <c r="J9" t="n">
-        <v>441047.3088389284</v>
+        <v>417671.8014704654</v>
       </c>
       <c r="K9" t="n">
-        <v>466751.8456559582</v>
+        <v>442013.9978361925</v>
       </c>
       <c r="L9" t="n">
-        <v>649869.7081259313</v>
+        <v>615426.6135952568</v>
       </c>
       <c r="M9" t="n">
-        <v>690484.1353092274</v>
+        <v>653888.4761378384</v>
       </c>
     </row>
     <row r="10">
@@ -870,16 +870,16 @@
         <v>7025338.56726941</v>
       </c>
       <c r="J10" t="n">
-        <v>445457.7819273179</v>
+        <v>421848.5194851701</v>
       </c>
       <c r="K10" t="n">
-        <v>476086.8825690777</v>
+        <v>450854.2777929166</v>
       </c>
       <c r="L10" t="n">
-        <v>656368.4052071908</v>
+        <v>621580.8797312096</v>
       </c>
       <c r="M10" t="n">
-        <v>704293.8180154121</v>
+        <v>666966.2456605955</v>
       </c>
     </row>
     <row r="11">
@@ -911,16 +911,16 @@
         <v>7266884.434554988</v>
       </c>
       <c r="J11" t="n">
-        <v>449912.3597465908</v>
+        <v>426067.0046800216</v>
       </c>
       <c r="K11" t="n">
-        <v>485608.6202204591</v>
+        <v>459871.3633487749</v>
       </c>
       <c r="L11" t="n">
-        <v>662932.0892592622</v>
+        <v>627796.6885285216</v>
       </c>
       <c r="M11" t="n">
-        <v>718379.6943757205</v>
+        <v>680305.5705738073</v>
       </c>
     </row>
     <row r="12">
@@ -952,16 +952,16 @@
         <v>7585969.935436635</v>
       </c>
       <c r="J12" t="n">
-        <v>454411.4833440569</v>
+        <v>430327.6747268219</v>
       </c>
       <c r="K12" t="n">
-        <v>495320.7926248683</v>
+        <v>469068.7906157503</v>
       </c>
       <c r="L12" t="n">
-        <v>669561.4101518552</v>
+        <v>634074.6554138068</v>
       </c>
       <c r="M12" t="n">
-        <v>732747.2882632348</v>
+        <v>693911.6819852832</v>
       </c>
     </row>
     <row r="13">
@@ -993,16 +993,16 @@
         <v>7890673.421340065</v>
       </c>
       <c r="J13" t="n">
-        <v>458955.5981774973</v>
+        <v>434630.9514740901</v>
       </c>
       <c r="K13" t="n">
-        <v>505227.2084773657</v>
+        <v>478450.1664280653</v>
       </c>
       <c r="L13" t="n">
-        <v>676257.0242533736</v>
+        <v>640415.4019679448</v>
       </c>
       <c r="M13" t="n">
-        <v>747402.2340284995</v>
+        <v>707789.9156249891</v>
       </c>
     </row>
     <row r="14">
@@ -1034,16 +1034,16 @@
         <v>8209889.29108787</v>
       </c>
       <c r="J14" t="n">
-        <v>463545.1541592724</v>
+        <v>438977.2609888308</v>
       </c>
       <c r="K14" t="n">
-        <v>515331.7526469128</v>
+        <v>488019.1697566265</v>
       </c>
       <c r="L14" t="n">
-        <v>683019.5944959072</v>
+        <v>646819.5559876241</v>
       </c>
       <c r="M14" t="n">
-        <v>762350.2787090695</v>
+        <v>721945.7139374887</v>
       </c>
     </row>
     <row r="15">
@@ -1075,16 +1075,16 @@
         <v>8518855.359058494</v>
       </c>
       <c r="J15" t="n">
-        <v>468180.6057008652</v>
+        <v>443367.0335987192</v>
       </c>
       <c r="K15" t="n">
-        <v>525638.3876998513</v>
+        <v>497779.5531517592</v>
       </c>
       <c r="L15" t="n">
-        <v>689849.7904408666</v>
+        <v>653287.7515475005</v>
       </c>
       <c r="M15" t="n">
-        <v>777597.2842832509</v>
+        <v>736384.6282162388</v>
       </c>
     </row>
     <row r="16">
@@ -1116,16 +1116,16 @@
         <v>8895503.725731052</v>
       </c>
       <c r="J16" t="n">
-        <v>472862.4117578738</v>
+        <v>447800.7039347064</v>
       </c>
       <c r="K16" t="n">
-        <v>536151.1554538482</v>
+        <v>507735.1442147944</v>
       </c>
       <c r="L16" t="n">
-        <v>696748.2883452751</v>
+        <v>659820.6290629755</v>
       </c>
       <c r="M16" t="n">
-        <v>793149.229968916</v>
+        <v>751112.3207805631</v>
       </c>
     </row>
     <row r="17">
@@ -1157,16 +1157,16 @@
         <v>9213879.372558238</v>
       </c>
       <c r="J17" t="n">
-        <v>477591.0358754523</v>
+        <v>452278.7109740537</v>
       </c>
       <c r="K17" t="n">
-        <v>546874.1785629252</v>
+        <v>517889.8470990902</v>
       </c>
       <c r="L17" t="n">
-        <v>703715.7712287279</v>
+        <v>666418.8353536053</v>
       </c>
       <c r="M17" t="n">
-        <v>809012.2145682944</v>
+        <v>766134.5671961746</v>
       </c>
     </row>
     <row r="18">
@@ -1198,16 +1198,16 @@
         <v>9605775.370457694</v>
       </c>
       <c r="J18" t="n">
-        <v>482366.9462342072</v>
+        <v>456801.4980837943</v>
       </c>
       <c r="K18" t="n">
-        <v>557811.6621341835</v>
+        <v>528247.644041072</v>
       </c>
       <c r="L18" t="n">
-        <v>710752.9289410155</v>
+        <v>673083.0237071415</v>
       </c>
       <c r="M18" t="n">
-        <v>825192.4588596601</v>
+        <v>781457.2585400982</v>
       </c>
     </row>
     <row r="19">
@@ -1239,16 +1239,16 @@
         <v>10027492.06818073</v>
       </c>
       <c r="J19" t="n">
-        <v>487190.6156965491</v>
+        <v>461369.5130646321</v>
       </c>
       <c r="K19" t="n">
-        <v>568967.8953768674</v>
+        <v>538812.5969218934</v>
       </c>
       <c r="L19" t="n">
-        <v>717860.4582304253</v>
+        <v>679813.8539442129</v>
       </c>
       <c r="M19" t="n">
-        <v>841696.3080368532</v>
+        <v>797086.4037109001</v>
       </c>
     </row>
     <row r="20">
@@ -1280,16 +1280,16 @@
         <v>10386561.50865104</v>
       </c>
       <c r="J20" t="n">
-        <v>492062.5218535147</v>
+        <v>465983.2081952784</v>
       </c>
       <c r="K20" t="n">
-        <v>580347.253284405</v>
+        <v>549588.8488603317</v>
       </c>
       <c r="L20" t="n">
-        <v>725039.0628127296</v>
+        <v>686611.9924836549</v>
       </c>
       <c r="M20" t="n">
-        <v>858530.2341975905</v>
+        <v>813028.1317851183</v>
       </c>
     </row>
     <row r="21">
@@ -1321,16 +1321,16 @@
         <v>10826488.03529049</v>
       </c>
       <c r="J21" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K21" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L21" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M21" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="22">
@@ -1362,16 +1362,16 @@
         <v>11015921.91112059</v>
       </c>
       <c r="J22" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K22" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L22" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M22" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="23">
@@ -1403,16 +1403,16 @@
         <v>11208197.29508816</v>
       </c>
       <c r="J23" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K23" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L23" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M23" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="24">
@@ -1444,16 +1444,16 @@
         <v>11403356.80981524</v>
       </c>
       <c r="J24" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K24" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L24" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M24" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="25">
@@ -1485,16 +1485,16 @@
         <v>11601443.71726321</v>
       </c>
       <c r="J25" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K25" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L25" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M25" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="26">
@@ -1526,16 +1526,16 @@
         <v>11802501.92832292</v>
       </c>
       <c r="J26" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K26" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L26" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M26" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="27">
@@ -1567,16 +1567,16 @@
         <v>12006576.01254852</v>
       </c>
       <c r="J27" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K27" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L27" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M27" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="28">
@@ -1608,16 +1608,16 @@
         <v>12213711.2080375</v>
       </c>
       <c r="J28" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K28" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L28" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M28" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="29">
@@ -1649,16 +1649,16 @@
         <v>12423953.43145882</v>
       </c>
       <c r="J29" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K29" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L29" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M29" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="30">
@@ -1690,16 +1690,16 @@
         <v>12637349.28823146</v>
       </c>
       <c r="J30" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K30" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L30" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M30" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="31">
@@ -1731,16 +1731,16 @@
         <v>12853946.08285568</v>
       </c>
       <c r="J31" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K31" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L31" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M31" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="32">
@@ -1772,16 +1772,16 @@
         <v>13073791.82939928</v>
       </c>
       <c r="J32" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K32" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L32" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M32" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="33">
@@ -1813,16 +1813,16 @@
         <v>13296935.26214102</v>
       </c>
       <c r="J33" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K33" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L33" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M33" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="34">
@@ -1854,16 +1854,16 @@
         <v>13523425.84637389</v>
       </c>
       <c r="J34" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K34" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L34" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M34" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="35">
@@ -1895,16 +1895,16 @@
         <v>13753313.78937025</v>
       </c>
       <c r="J35" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K35" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L35" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M35" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="36">
@@ -1936,16 +1936,16 @@
         <v>13986650.05151157</v>
       </c>
       <c r="J36" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K36" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L36" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M36" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="37">
@@ -1977,16 +1977,16 @@
         <v>14223486.35758499</v>
       </c>
       <c r="J37" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K37" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L37" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M37" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="38">
@@ -2018,16 +2018,16 @@
         <v>14463875.20824951</v>
       </c>
       <c r="J38" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K38" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L38" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M38" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="39">
@@ -2059,16 +2059,16 @@
         <v>14707869.89167401</v>
       </c>
       <c r="J39" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K39" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L39" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M39" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="40">
@@ -2100,16 +2100,16 @@
         <v>14955524.49534988</v>
       </c>
       <c r="J40" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K40" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L40" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M40" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="41">
@@ -2141,16 +2141,16 @@
         <v>15206893.91808089</v>
       </c>
       <c r="J41" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K41" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L41" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M41" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="42">
@@ -2182,16 +2182,16 @@
         <v>15462033.88215285</v>
       </c>
       <c r="J42" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K42" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L42" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M42" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="43">
@@ -2223,16 +2223,16 @@
         <v>15721000.94568591</v>
       </c>
       <c r="J43" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K43" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L43" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M43" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="44">
@@ -2264,16 +2264,16 @@
         <v>15983852.51517194</v>
       </c>
       <c r="J44" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K44" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L44" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M44" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="45">
@@ -2305,16 +2305,16 @@
         <v>16250646.85820028</v>
       </c>
       <c r="J45" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K45" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L45" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M45" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="46">
@@ -2346,16 +2346,16 @@
         <v>16521443.11637402</v>
       </c>
       <c r="J46" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K46" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L46" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M46" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="47">
@@ -2387,16 +2387,16 @@
         <v>16796301.31842041</v>
       </c>
       <c r="J47" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K47" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L47" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M47" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="48">
@@ -2428,16 +2428,16 @@
         <v>17075282.39349746</v>
       </c>
       <c r="J48" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K48" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L48" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M48" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="49">
@@ -2469,16 +2469,16 @@
         <v>17358448.18470067</v>
       </c>
       <c r="J49" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K49" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L49" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M49" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="50">
@@ -2510,16 +2510,16 @@
         <v>17645861.46277194</v>
       </c>
       <c r="J50" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K50" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L50" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M50" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="51">
@@ -2551,16 +2551,16 @@
         <v>17937585.94001425</v>
       </c>
       <c r="J51" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K51" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L51" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M51" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="52">
@@ -2592,16 +2592,16 @@
         <v>18233686.28441524</v>
       </c>
       <c r="J52" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K52" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L52" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M52" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="53">
@@ -2633,16 +2633,16 @@
         <v>18534228.13398223</v>
       </c>
       <c r="J53" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K53" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L53" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M53" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="54">
@@ -2674,16 +2674,16 @@
         <v>18839278.11129269</v>
       </c>
       <c r="J54" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K54" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L54" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M54" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="55">
@@ -2715,16 +2715,16 @@
         <v>19148903.83826285</v>
       </c>
       <c r="J55" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K55" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L55" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M55" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="56">
@@ -2756,16 +2756,16 @@
         <v>19463173.95113756</v>
       </c>
       <c r="J56" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K56" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L56" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M56" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="57">
@@ -2797,16 +2797,16 @@
         <v>19782158.11570536</v>
       </c>
       <c r="J57" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K57" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L57" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M57" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="58">
@@ -2838,16 +2838,16 @@
         <v>20105927.0427417</v>
       </c>
       <c r="J58" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K58" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L58" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M58" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="59">
@@ -2879,16 +2879,16 @@
         <v>20434552.50368359</v>
       </c>
       <c r="J59" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K59" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L59" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M59" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="60">
@@ -2920,16 +2920,16 @@
         <v>20768107.34653959</v>
       </c>
       <c r="J60" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K60" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L60" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M60" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
     <row r="61">
@@ -2961,16 +2961,16 @@
         <v>21106665.51203844</v>
       </c>
       <c r="J61" t="n">
-        <v>496983.1470720496</v>
+        <v>470643.0402772309</v>
       </c>
       <c r="K61" t="n">
-        <v>591954.1983500929</v>
+        <v>560580.6258375379</v>
       </c>
       <c r="L61" t="n">
-        <v>732289.4534408568</v>
+        <v>693478.1124084914</v>
       </c>
       <c r="M61" t="n">
-        <v>875700.8388815423</v>
+        <v>829288.6944208206</v>
       </c>
     </row>
   </sheetData>
